--- a/Feature-Analysis/Resize Feature/s_26_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_26_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.43817129626</v>
+        <v>738157.43817129626</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.43869212968</v>
+        <v>738157.43869212968</v>
       </c>
       <c r="C3" s="0">
         <v>45.000007376074791</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.43894675921</v>
+        <v>738157.43894675921</v>
       </c>
       <c r="C4" s="0">
         <v>66.999998688697815</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.4396296296</v>
+        <v>738157.4396296296</v>
       </c>
       <c r="C5" s="0">
         <v>126.0000005364418</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.43995370367</v>
+        <v>738157.43995370367</v>
       </c>
       <c r="C6" s="0">
         <v>153.999999538064</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.4403125</v>
+        <v>738157.4403125</v>
       </c>
       <c r="C7" s="0">
         <v>185.00000238418579</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.44064814819</v>
+        <v>738157.44064814819</v>
       </c>
       <c r="C8" s="0">
         <v>214.00000602006912</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.4410069444</v>
+        <v>738157.4410069444</v>
       </c>
       <c r="C9" s="0">
         <v>244.9999988079071</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.44134259259</v>
+        <v>738157.44134259259</v>
       </c>
       <c r="C10" s="0">
         <v>274.00000244379044</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.44171296293</v>
+        <v>738157.44171296293</v>
       </c>
       <c r="C11" s="0">
         <v>305.99999986588955</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.44202546298</v>
+        <v>738157.44202546298</v>
       </c>
       <c r="C12" s="0">
         <v>333.00000429153442</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.44238425931</v>
+        <v>738157.44238425931</v>
       </c>
       <c r="C13" s="0">
         <v>364.00000713765621</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.44273148151</v>
+        <v>738157.44273148151</v>
       </c>
       <c r="C14" s="0">
         <v>394.00000534951687</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.44311342598</v>
+        <v>738157.44311342598</v>
       </c>
       <c r="C15" s="0">
         <v>427.00000740587711</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.44377314812</v>
+        <v>738157.44377314812</v>
       </c>
       <c r="C16" s="0">
         <v>483.99999998509884</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.44413194444</v>
+        <v>738157.44413194444</v>
       </c>
       <c r="C17" s="0">
         <v>515.00000283122063</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.44446759264</v>
+        <v>738157.44446759264</v>
       </c>
       <c r="C18" s="0">
         <v>544.00000646710396</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.44481481484</v>
+        <v>738157.44481481484</v>
       </c>
       <c r="C19" s="0">
         <v>574.00000467896461</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.44515046291</v>
+        <v>738157.44515046291</v>
       </c>
       <c r="C20" s="0">
         <v>602.99999825656414</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.44553240738</v>
+        <v>738157.44553240738</v>
       </c>
       <c r="C21" s="0">
         <v>636.00000031292439</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.44590277784</v>
+        <v>738157.44590277784</v>
       </c>
       <c r="C22" s="0">
         <v>668.0000077933073</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.44623842591</v>
+        <v>738157.44623842591</v>
       </c>
       <c r="C23" s="0">
         <v>697.00000137090683</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.4465740741</v>
+        <v>738157.4465740741</v>
       </c>
       <c r="C24" s="0">
         <v>726.00000500679016</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.44693287043</v>
+        <v>738157.44693287043</v>
       </c>
       <c r="C25" s="0">
         <v>757.00000785291195</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.44725694449</v>
+        <v>738157.44725694449</v>
       </c>
       <c r="C26" s="0">
         <v>785.00000685453415</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.4476157407</v>
+        <v>738157.4476157407</v>
       </c>
       <c r="C27" s="0">
         <v>815.99999964237213</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.44796296302</v>
+        <v>738157.44796296302</v>
       </c>
       <c r="C28" s="0">
         <v>846.00000791251659</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.44831018522</v>
+        <v>738157.44831018522</v>
       </c>
       <c r="C29" s="0">
         <v>876.00000612437725</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.44901620375</v>
+        <v>738157.44901620375</v>
       </c>
       <c r="C30" s="0">
         <v>937.0000071823597</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.44935185183</v>
+        <v>738157.44935185183</v>
       </c>
       <c r="C31" s="0">
         <v>966.00000075995922</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.44969907403</v>
+        <v>738157.44969907403</v>
       </c>
       <c r="C32" s="0">
         <v>995.99999897181988</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.45003472222</v>
+        <v>738157.45003472222</v>
       </c>
       <c r="C33" s="0">
         <v>1025.0000026077032</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.45039351855</v>
+        <v>738157.45039351855</v>
       </c>
       <c r="C34" s="0">
         <v>1056.000005453825</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.45074074075</v>
+        <v>738157.45074074075</v>
       </c>
       <c r="C35" s="0">
         <v>1086.0000036656857</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.45109953708</v>
+        <v>738157.45109953708</v>
       </c>
       <c r="C36" s="0">
         <v>1117.0000065118074</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.45144675928</v>
+        <v>738157.45144675928</v>
       </c>
       <c r="C37" s="0">
         <v>1147.0000047236681</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.45177083334</v>
+        <v>738157.45177083334</v>
       </c>
       <c r="C38" s="0">
         <v>1175.0000037252903</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.45212962967</v>
+        <v>738157.45212962967</v>
       </c>
       <c r="C39" s="0">
         <v>1206.0000065714121</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.45246527775</v>
+        <v>738157.45246527775</v>
       </c>
       <c r="C40" s="0">
         <v>1235.0000001490116</v>
